--- a/03.COMP 513 - Computational Mathematics and Models I/05.COMP_513_Assignment_5_ex2007.xlsx
+++ b/03.COMP 513 - Computational Mathematics and Models I/05.COMP_513_Assignment_5_ex2007.xlsx
@@ -19,7 +19,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>= 2 ( 8 - 21 ) - 3 ( 6 - 7 ) + 5 ( 9 - 4 )</t>
+  </si>
+  <si>
+    <t>=  2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ≠ </t>
+  </si>
+  <si>
+    <t>By Crumer's Rule,</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>5 ( 8 - 21) - 3 (12 - 35 ) + 5 (18 - 20 )</t>
+  </si>
+  <si>
+    <t>2 ( 12 - 35 ) - 5 ( 6 - 7 ) + 5 ( 15 - 6 )</t>
+  </si>
+  <si>
+    <t>2 ( 20 - 18 ) - 3 ( 15 - 6 ) + 5 ( 9 - 4 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =</t>
+  </si>
+  <si>
+    <t>| A |</t>
+  </si>
+  <si>
+    <t>By Adjoint Method</t>
+  </si>
+  <si>
+    <t>Let,</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B  =</t>
+  </si>
+  <si>
+    <t>X  =</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>adj (A) . B</t>
+  </si>
+  <si>
+    <t>Cofactor of A</t>
+  </si>
+  <si>
+    <t>Adj ( A )</t>
+  </si>
+  <si>
+    <t>By Gauss-Jordan Elimination</t>
+  </si>
+  <si>
+    <t>A | B</t>
+  </si>
+  <si>
+    <t>- 1/2</t>
+  </si>
+  <si>
+    <t>-1/2</t>
+  </si>
+  <si>
+    <t>-3/2</t>
+  </si>
+  <si>
+    <t>3/2</t>
+  </si>
+  <si>
+    <t>5/2</t>
+  </si>
   <si>
     <r>
       <t>2x</t>
@@ -27,7 +117,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -36,16 +126,13 @@
     </r>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
     <r>
       <t>3x</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -60,7 +147,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -69,16 +156,13 @@
     </r>
   </si>
   <si>
-    <t>=</t>
-  </si>
-  <si>
     <r>
       <t>3x</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -93,7 +177,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -108,7 +192,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -123,7 +207,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -138,7 +222,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -147,28 +231,13 @@
     </r>
   </si>
   <si>
-    <t>= 2 ( 8 - 21 ) - 3 ( 6 - 7 ) + 5 ( 9 - 4 )</t>
-  </si>
-  <si>
-    <t>=  2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ≠ </t>
-  </si>
-  <si>
-    <t>By Crumer's Rule,</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <r>
       <t>A</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -177,16 +246,13 @@
     </r>
   </si>
   <si>
-    <t>5 ( 8 - 21) - 3 (12 - 35 ) + 5 (18 - 20 )</t>
-  </si>
-  <si>
     <r>
       <t>A</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -195,16 +261,13 @@
     </r>
   </si>
   <si>
-    <t>2 ( 12 - 35 ) - 5 ( 6 - 7 ) + 5 ( 15 - 6 )</t>
-  </si>
-  <si>
     <r>
       <t>A</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -213,22 +276,91 @@
     </r>
   </si>
   <si>
-    <t>2 ( 20 - 18 ) - 3 ( 15 - 6 ) + 5 ( 9 - 4 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> =</t>
-  </si>
-  <si>
-    <t>| A |</t>
-  </si>
-  <si>
     <r>
       <t>| A</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>|</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>| A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>|</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>| A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -237,7 +369,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -247,108 +379,12 @@
   </si>
   <si>
     <r>
-      <t>| A</t>
+      <t>x</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>|</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>| A</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>|</t>
-    </r>
-  </si>
-  <si>
-    <t>By Adjoint Method</t>
-  </si>
-  <si>
-    <t>Let,</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>B  =</t>
-  </si>
-  <si>
-    <t>X  =</t>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -373,7 +409,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -392,19 +428,13 @@
     </r>
   </si>
   <si>
-    <t>AX</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <r>
       <t>A</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -413,7 +443,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -422,19 +452,66 @@
     </r>
   </si>
   <si>
-    <t>adj (A) . B</t>
-  </si>
-  <si>
-    <t>Cofactor of A</t>
-  </si>
-  <si>
-    <t>Adj ( A )</t>
-  </si>
-  <si>
-    <t>By Gauss-Jordan Elimination</t>
-  </si>
-  <si>
-    <t>A | B</t>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = -3 , x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = 2 , x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = 1</t>
+    </r>
   </si>
   <si>
     <r>
@@ -443,7 +520,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -452,7 +529,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -462,7 +539,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -477,7 +554,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -486,7 +563,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -496,7 +573,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -505,28 +582,13 @@
     </r>
   </si>
   <si>
-    <t>- 1/2</t>
-  </si>
-  <si>
-    <t>-1/2</t>
-  </si>
-  <si>
-    <t>-3/2</t>
-  </si>
-  <si>
-    <t>3/2</t>
-  </si>
-  <si>
-    <t>5/2</t>
-  </si>
-  <si>
     <r>
       <t>R</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -535,7 +597,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -545,7 +607,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -560,7 +622,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -569,7 +631,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -584,7 +646,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -593,7 +655,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -608,7 +670,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -617,7 +679,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -632,7 +694,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -641,7 +703,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -651,7 +713,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -660,7 +722,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -675,7 +737,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -684,7 +746,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -694,7 +756,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -709,7 +771,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -718,7 +780,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -728,7 +790,7 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -737,73 +799,14 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> = -3 , x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> = 2 , x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> = 1</t>
-    </r>
+    <t>1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -812,28 +815,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <vertAlign val="subscript"/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -890,58 +886,58 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2473,11 +2469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87:H87"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" customWidth="1"/>
@@ -2493,89 +2487,92 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
+    <row r="1" spans="1:9" ht="20.25">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75">
+    <row r="2" spans="1:9" ht="20.25">
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75">
+    <row r="3" spans="1:9" ht="20.25">
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3"/>
-      <c r="B5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="9"/>
+      <c r="A7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="1">
         <v>2</v>
@@ -2589,11 +2586,11 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5"/>
-      <c r="B8" s="11" t="s">
-        <v>14</v>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -2606,7 +2603,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="9"/>
+      <c r="A9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="1">
         <v>1</v>
@@ -2619,40 +2616,40 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="12"/>
-      <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="C13" s="8" t="s">
-        <v>11</v>
+      <c r="C13" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="9"/>
+      <c r="A15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1">
         <v>5</v>
@@ -2664,13 +2661,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75">
+    <row r="16" spans="1:9" ht="20.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="11" t="s">
-        <v>15</v>
+      <c r="B16" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
         <v>6</v>
@@ -2683,7 +2680,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="9"/>
+      <c r="A17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="1">
         <v>1</v>
@@ -2697,20 +2694,20 @@
     </row>
     <row r="19" spans="1:9">
       <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="21" spans="1:9">
       <c r="C21" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
         <v>-6</v>
@@ -2728,12 +2725,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75">
-      <c r="B24" s="11" t="s">
-        <v>17</v>
+    <row r="24" spans="1:9" ht="20.25">
+      <c r="B24" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -2759,20 +2756,20 @@
     </row>
     <row r="27" spans="1:9">
       <c r="C27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="29" spans="1:9">
       <c r="C29" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
         <v>4</v>
@@ -2790,12 +2787,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.75">
-      <c r="B32" s="11" t="s">
-        <v>19</v>
+    <row r="32" spans="1:9" ht="20.25">
+      <c r="B32" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -2820,154 +2817,154 @@
       </c>
     </row>
     <row r="35" spans="2:9">
-      <c r="C35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="C35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
     </row>
     <row r="37" spans="2:9">
       <c r="C37" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="15">
+      <c r="B40" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="14">
         <v>-6</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H40" s="2">
+      <c r="G40" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="12">
         <v>-3</v>
       </c>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="2"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="2"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="12"/>
       <c r="F41" s="1">
         <v>2</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43" spans="2:9" ht="18.75">
-      <c r="B43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="14" t="s">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="2:9" ht="20.25">
+      <c r="B43" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="14">
         <v>4</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="15">
-        <v>4</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="2">
+      <c r="G43" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="2"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="2"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="12"/>
       <c r="F44" s="1">
         <v>2</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="46" spans="2:9" ht="18.75">
-      <c r="B46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="15">
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="46" spans="2:9" ht="20.25">
+      <c r="B46" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="14">
         <v>2</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="2">
+      <c r="G46" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="2"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="2"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="12"/>
       <c r="F47" s="1">
         <v>2</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
+      <c r="B49" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" ht="18.75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="20.25">
       <c r="D52" s="1">
         <v>2</v>
       </c>
@@ -2981,15 +2978,15 @@
         <v>5</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" ht="18.75">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="20.25">
       <c r="B53" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -3001,25 +2998,25 @@
         <v>7</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I53" s="1">
         <v>6</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" ht="18.75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="20.25">
       <c r="D54" s="1">
         <v>1</v>
       </c>
@@ -3033,54 +3030,54 @@
         <v>5</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="2:12">
       <c r="B58" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="18.75" customHeight="1">
-      <c r="B60" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G60" s="17"/>
+      <c r="B60" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="15"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="2"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="12"/>
     </row>
     <row r="63" spans="2:12">
       <c r="B63" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
@@ -3098,14 +3095,14 @@
       </c>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="3"/>
-      <c r="C66" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
       <c r="F66" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G66" s="1">
         <v>9</v>
@@ -3140,12 +3137,12 @@
       </c>
     </row>
     <row r="70" spans="2:11">
-      <c r="D70" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E70" s="2"/>
+      <c r="D70" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="12"/>
       <c r="F70" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G70" s="1">
         <v>1</v>
@@ -3169,27 +3166,27 @@
       </c>
     </row>
     <row r="73" spans="2:11">
-      <c r="E73" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H73" s="17"/>
+      <c r="E73" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="15"/>
     </row>
     <row r="74" spans="2:11">
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" s="2"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="12"/>
     </row>
     <row r="76" spans="2:11">
-      <c r="F76" s="3"/>
+      <c r="F76" s="2"/>
       <c r="H76" s="1">
         <v>-13</v>
       </c>
@@ -3205,9 +3202,9 @@
     </row>
     <row r="77" spans="2:11">
       <c r="F77" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G77" s="15">
+        <v>1</v>
+      </c>
+      <c r="G77" s="14">
         <v>1</v>
       </c>
       <c r="H77" s="1">
@@ -3224,7 +3221,7 @@
       </c>
     </row>
     <row r="78" spans="2:11">
-      <c r="F78" s="3"/>
+      <c r="F78" s="2"/>
       <c r="G78" s="1">
         <v>2</v>
       </c>
@@ -3248,9 +3245,9 @@
     </row>
     <row r="81" spans="2:12">
       <c r="F81" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" s="15">
+        <v>1</v>
+      </c>
+      <c r="G81" s="14">
         <v>1</v>
       </c>
       <c r="H81" s="1">
@@ -3272,7 +3269,7 @@
     </row>
     <row r="85" spans="2:12">
       <c r="F85" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G85" s="1">
         <v>2</v>
@@ -3283,16 +3280,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="18.75">
-      <c r="B87" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
+    <row r="87" spans="2:12" ht="20.25">
+      <c r="B87" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
     </row>
     <row r="88" spans="2:12">
       <c r="B88" s="16"/>
@@ -3304,22 +3301,22 @@
       <c r="H88" s="16"/>
     </row>
     <row r="90" spans="2:12">
-      <c r="B90" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
+      <c r="B90" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
     </row>
     <row r="91" spans="2:12">
       <c r="B91" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12" ht="18.75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" ht="20.25">
       <c r="D93" s="1">
         <v>2</v>
       </c>
@@ -3333,15 +3330,15 @@
         <v>5</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="2:12" ht="18.75">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" ht="20.25">
       <c r="B94" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D94" s="1">
         <v>3</v>
@@ -3353,25 +3350,25 @@
         <v>7</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I94" s="1">
         <v>6</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" ht="18.75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" ht="20.25">
       <c r="D95" s="1">
         <v>1</v>
       </c>
@@ -3385,15 +3382,15 @@
         <v>5</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="2:9">
-      <c r="B97" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="B97" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
     </row>
     <row r="99" spans="2:9">
       <c r="C99" s="1">
@@ -3409,9 +3406,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="18.75">
+    <row r="100" spans="2:9" ht="20.25">
       <c r="B100" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C100" s="1">
         <v>3</v>
@@ -3425,13 +3422,13 @@
       <c r="F100" s="1">
         <v>6</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="2:9" ht="18.75">
+      <c r="G100" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+    </row>
+    <row r="101" spans="2:9" ht="20.25">
       <c r="C101" s="1">
         <v>1</v>
       </c>
@@ -3444,11 +3441,11 @@
       <c r="F101" s="1">
         <v>5</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
+      <c r="G101" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
     </row>
     <row r="103" spans="2:9" ht="20.25" customHeight="1">
       <c r="C103" s="1">
@@ -3466,41 +3463,41 @@
     </row>
     <row r="104" spans="2:9" ht="19.5" customHeight="1">
       <c r="B104" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C104" s="1">
         <v>0</v>
       </c>
-      <c r="D104" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E104" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
+      <c r="D104" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
     </row>
     <row r="105" spans="2:9" ht="18" customHeight="1">
       <c r="C105" s="1">
         <v>0</v>
       </c>
-      <c r="D105" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E105" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" ht="18.75">
+      <c r="D105" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" ht="20.25">
       <c r="C107" s="1">
         <v>2</v>
       </c>
@@ -3513,33 +3510,33 @@
       <c r="F107" s="1">
         <v>5</v>
       </c>
-      <c r="G107" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
+      <c r="G107" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
     </row>
     <row r="108" spans="2:9" ht="18.75" customHeight="1">
       <c r="B108" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C108" s="1">
         <v>0</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E108" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G108" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
+      <c r="D108" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G108" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
     </row>
     <row r="109" spans="2:9" ht="19.5" customHeight="1">
       <c r="C109" s="1">
@@ -3554,34 +3551,34 @@
       <c r="F109" s="1">
         <v>-2</v>
       </c>
-      <c r="G109" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
-    </row>
-    <row r="111" spans="2:9" ht="18.75">
+      <c r="G109" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+    </row>
+    <row r="111" spans="2:9" ht="20.25">
       <c r="C111" s="1">
         <v>1</v>
       </c>
-      <c r="D111" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E111" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G111" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-    </row>
-    <row r="112" spans="2:9" ht="18.75">
+      <c r="D111" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+    </row>
+    <row r="112" spans="2:9" ht="20.25">
       <c r="B112" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C112" s="1">
         <v>0</v>
@@ -3595,11 +3592,11 @@
       <c r="F112" s="1">
         <v>3</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
+      <c r="G112" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
     </row>
     <row r="113" spans="2:9">
       <c r="C113" s="1">
@@ -3629,9 +3626,9 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="18.75">
+    <row r="116" spans="2:9" ht="20.25">
       <c r="B116" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C116" s="1">
         <v>0</v>
@@ -3645,11 +3642,11 @@
       <c r="F116" s="1">
         <v>2</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
+      <c r="G116" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
     </row>
     <row r="117" spans="2:9">
       <c r="C117" s="1">
@@ -3681,7 +3678,7 @@
     </row>
     <row r="120" spans="2:9">
       <c r="B120" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C120" s="1">
         <v>0</v>
@@ -3710,19 +3707,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="18.75">
-      <c r="B123" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
+    <row r="123" spans="2:9" ht="20.25">
+      <c r="B123" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
     <mergeCell ref="B123:H123"/>
     <mergeCell ref="B87:H87"/>
     <mergeCell ref="G108:I108"/>
@@ -3734,41 +3766,6 @@
     <mergeCell ref="G101:I101"/>
     <mergeCell ref="G104:I104"/>
     <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="C11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" orientation="portrait" r:id="rId1"/>
